--- a/opcode_table.xlsx
+++ b/opcode_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isomorphism\Documents\Repos\cpp-virtual-machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43906DE-0276-419B-AB4E-2768E316BEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2BBAFE-B089-4D76-A9E8-1EDDAAD93304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6930" windowWidth="29040" windowHeight="15840" xr2:uid="{B1398A2A-CF57-4AA6-96E4-2596DE441B78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B1398A2A-CF57-4AA6-96E4-2596DE441B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>Operands: Constant, Register, Memory, Pointer to Memory (in Register)</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>MOVPM</t>
+  </si>
+  <si>
+    <t>|--|--|--|--|--|--|--|--|</t>
   </si>
 </sst>
 </file>
@@ -799,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A64593-D21C-479C-9277-72523606764B}">
-  <dimension ref="B1:AE436"/>
+  <dimension ref="B1:AI436"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="G30:H30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,7 +818,7 @@
     <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -825,7 +828,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="2:31" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:35" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -838,7 +841,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -848,7 +851,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="2:31" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -859,8 +862,11 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" spans="2:31" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -872,7 +878,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -882,7 +888,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -894,8 +900,12 @@
       <c r="O7" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI7" t="str">
+        <f>"|"&amp;C8&amp;"|"&amp;D8&amp;"|"&amp;E8&amp;"|"&amp;F8&amp;"|"&amp;G8&amp;"|"&amp;H8&amp;"|"&amp;I8&amp;"|"&amp;J8&amp;"|"</f>
+        <v>|index|opcode|func|mnemonic|arg0|arg1|arg2|bytes|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -940,8 +950,12 @@
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI8" t="str">
+        <f t="shared" ref="AI8:AI71" si="0">"|"&amp;C9&amp;"|"&amp;D9&amp;"|"&amp;E9&amp;"|"&amp;F9&amp;"|"&amp;G9&amp;"|"&amp;H9&amp;"|"&amp;I9&amp;"|"&amp;J9&amp;"|"</f>
+        <v>|0|0x0|||||||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C9" s="2">
         <v>0</v>
       </c>
@@ -951,7 +965,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="M9" t="str">
-        <f t="shared" ref="M9:M72" si="0">IF(LEN(E9)&gt;0,"uint8_t " &amp;E9&amp;"(); ","")</f>
+        <f t="shared" ref="M9:M72" si="1">IF(LEN(E9)&gt;0,"uint8_t " &amp;E9&amp;"(); ","")</f>
         <v/>
       </c>
       <c r="O9" s="12"/>
@@ -971,18 +985,22 @@
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI9" t="str">
+        <f t="shared" si="0"/>
+        <v>|1|0x1|||||||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ref="D10:D73" si="1">"0x"&amp;DEC2HEX(C10)</f>
+        <f t="shared" ref="D10:D73" si="2">"0x"&amp;DEC2HEX(C10)</f>
         <v>0x1</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O10" s="12"/>
@@ -1002,18 +1020,22 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI10" t="str">
+        <f t="shared" si="0"/>
+        <v>|2|0x2|||||||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2</v>
       </c>
       <c r="J11" s="10"/>
       <c r="M11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O11" s="12"/>
@@ -1033,18 +1055,22 @@
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI11" t="str">
+        <f t="shared" si="0"/>
+        <v>|3|0x3|||||||</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O12" s="12"/>
@@ -1064,18 +1090,22 @@
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI12" t="str">
+        <f t="shared" si="0"/>
+        <v>|4|0x4|||||||</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x4</v>
       </c>
       <c r="J13" s="10"/>
       <c r="M13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O13" s="12"/>
@@ -1095,13 +1125,17 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI13" t="str">
+        <f t="shared" si="0"/>
+        <v>|5|0x5|HLT|HLT||||1|</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x5</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1114,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t HLT(); </v>
       </c>
       <c r="O14" s="12"/>
@@ -1134,18 +1168,22 @@
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI14" t="str">
+        <f t="shared" si="0"/>
+        <v>|6|0x6|||||||</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C15" s="2">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x6</v>
       </c>
       <c r="J15" s="10"/>
       <c r="M15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O15" s="12"/>
@@ -1165,18 +1203,22 @@
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI15" t="str">
+        <f t="shared" si="0"/>
+        <v>|7|0x7|||||||</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
       <c r="C16" s="2">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x7</v>
       </c>
       <c r="J16" s="10"/>
       <c r="M16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O16" s="12"/>
@@ -1196,18 +1238,22 @@
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI16" t="str">
+        <f t="shared" si="0"/>
+        <v>|8|0x8|||||||</v>
+      </c>
+    </row>
+    <row r="17" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C17" s="2">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x8</v>
       </c>
       <c r="J17" s="10"/>
       <c r="M17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O17" s="12"/>
@@ -1227,18 +1273,22 @@
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI17" t="str">
+        <f t="shared" si="0"/>
+        <v>|9|0x9|||||||</v>
+      </c>
+    </row>
+    <row r="18" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C18" s="2">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x9</v>
       </c>
       <c r="J18" s="10"/>
       <c r="M18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O18" s="12"/>
@@ -1258,13 +1308,17 @@
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI18" t="str">
+        <f t="shared" si="0"/>
+        <v>|10|0xA|PSHC|PUSH|const|||4|</v>
+      </c>
+    </row>
+    <row r="19" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C19" s="2">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0xA</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1280,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t PSHC(); </v>
       </c>
       <c r="O19" s="12"/>
@@ -1300,13 +1354,17 @@
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI19" t="str">
+        <f t="shared" si="0"/>
+        <v>|11|0xB|PSHR|PUSH|reg|||3|</v>
+      </c>
+    </row>
+    <row r="20" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C20" s="2">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0xB</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1322,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t PSHR(); </v>
       </c>
       <c r="O20" s="12"/>
@@ -1342,13 +1400,17 @@
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI20" t="str">
+        <f t="shared" si="0"/>
+        <v>|12|0xC|POP|POP|reg|||3|</v>
+      </c>
+    </row>
+    <row r="21" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C21" s="2">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0xC</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1364,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t POP(); </v>
       </c>
       <c r="O21" s="12"/>
@@ -1384,18 +1446,22 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI21" t="str">
+        <f t="shared" si="0"/>
+        <v>|13|0xD|||||||</v>
+      </c>
+    </row>
+    <row r="22" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C22" s="2">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0xD</v>
       </c>
       <c r="J22" s="10"/>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O22" s="12"/>
@@ -1415,18 +1481,22 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI22" t="str">
+        <f t="shared" si="0"/>
+        <v>|14|0xE|||||||</v>
+      </c>
+    </row>
+    <row r="23" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C23" s="2">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0xE</v>
       </c>
       <c r="J23" s="10"/>
       <c r="M23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O23" s="12"/>
@@ -1446,18 +1516,22 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI23" t="str">
+        <f t="shared" si="0"/>
+        <v>|15|0xF|||||||</v>
+      </c>
+    </row>
+    <row r="24" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C24" s="2">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0xF</v>
       </c>
       <c r="J24" s="10"/>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O24" s="12"/>
@@ -1477,13 +1551,17 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI24" t="str">
+        <f t="shared" si="0"/>
+        <v>|16|0x10|MOVRC|MOV|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="25" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C25" s="2">
         <v>16</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x10</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1502,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t MOVRC(); </v>
       </c>
       <c r="O25" s="12"/>
@@ -1522,13 +1600,17 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI25" t="str">
+        <f t="shared" si="0"/>
+        <v>|17|0x11|MOVRR|MOV|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="26" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C26" s="2">
         <v>17</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x11</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1547,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t MOVRR(); </v>
       </c>
       <c r="O26" s="12"/>
@@ -1567,13 +1649,17 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI26" t="str">
+        <f t="shared" si="0"/>
+        <v>|18|0x12|MOVRM|MOV|reg|mem||3|</v>
+      </c>
+    </row>
+    <row r="27" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C27" s="2">
         <v>18</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x12</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1592,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t MOVRM(); </v>
       </c>
       <c r="O27" s="12"/>
@@ -1612,13 +1698,17 @@
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI27" t="str">
+        <f t="shared" si="0"/>
+        <v>|19|0x13|MOVRP|MOV|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="28" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C28" s="2">
         <v>19</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x13</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1637,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">uint8_t MOVRP(); </v>
       </c>
       <c r="O28" s="12"/>
@@ -1657,13 +1747,17 @@
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="AI28" t="str">
+        <f t="shared" si="0"/>
+        <v>|20|0x14|MOVMC|MOV|mem|const||4|</v>
+      </c>
+    </row>
+    <row r="29" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C29" s="2">
         <v>20</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x14</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1682,16 +1776,20 @@
         <v>4</v>
       </c>
       <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVMC(); </v>
+      </c>
+      <c r="AI29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVMC(); </v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.35">
+        <v>|21|0x15|MOVMR|MOV|mem|reg||3|</v>
+      </c>
+    </row>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C30" s="2">
         <v>21</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x15</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1710,16 +1808,20 @@
         <v>3</v>
       </c>
       <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVMR(); </v>
+      </c>
+      <c r="AI30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVMR(); </v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.35">
+        <v>|22|0x16|MOVMM|MOV|mem|mem||3|</v>
+      </c>
+    </row>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C31" s="2">
         <v>22</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x16</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1738,16 +1840,20 @@
         <v>3</v>
       </c>
       <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVMM(); </v>
+      </c>
+      <c r="AI31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVMM(); </v>
-      </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.35">
+        <v>|23|0x17|MOVMP|MOV|mem|ptr||3|</v>
+      </c>
+    </row>
+    <row r="32" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C32" s="2">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x17</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1766,16 +1872,20 @@
         <v>3</v>
       </c>
       <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVMP(); </v>
+      </c>
+      <c r="AI32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVMP(); </v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|24|0x18|MOVPC|MOV|ptr|const||4|</v>
+      </c>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C33" s="2">
         <v>24</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x18</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1794,16 +1904,20 @@
         <v>4</v>
       </c>
       <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVPC(); </v>
+      </c>
+      <c r="AI33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVPC(); </v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|25|0x19|MOVPR|MOV|ptr|reg||3|</v>
+      </c>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C34" s="2">
         <v>25</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x19</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1822,16 +1936,20 @@
         <v>3</v>
       </c>
       <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVPR(); </v>
+      </c>
+      <c r="AI34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVPR(); </v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|26|0x1A|MOVPM|MOV|ptr|mem||3|</v>
+      </c>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C35" s="2">
         <v>26</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x1A</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1850,16 +1968,20 @@
         <v>3</v>
       </c>
       <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVPM(); </v>
+      </c>
+      <c r="AI35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVPM(); </v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|27|0x1B|MOVPP|MOV|ptr|ptr||3|</v>
+      </c>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C36" s="2">
         <v>27</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x1B</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1878,74 +2000,94 @@
         <v>3</v>
       </c>
       <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t MOVPP(); </v>
+      </c>
+      <c r="AI36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t MOVPP(); </v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|28|0x1C||||||3|</v>
+      </c>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C37" s="2">
         <v>28</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x1C</v>
       </c>
       <c r="J37" s="10">
         <v>3</v>
       </c>
       <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI37" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|29|0x1D|||||||</v>
+      </c>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C38" s="2">
         <v>29</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x1D</v>
       </c>
       <c r="J38" s="10"/>
       <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI38" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|30|0x1E|||||||</v>
+      </c>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C39" s="2">
         <v>30</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x1E</v>
       </c>
       <c r="J39" s="10"/>
       <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI39" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|31|0x1F|||||||</v>
+      </c>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C40" s="2">
         <v>31</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x1F</v>
       </c>
       <c r="J40" s="10"/>
       <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI40" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|32|0x20|JMPC|JMP|const|||3|</v>
+      </c>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C41" s="2">
         <v>32</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x20</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1961,16 +2103,20 @@
         <v>3</v>
       </c>
       <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JMPC(); </v>
+      </c>
+      <c r="AI41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JMPC(); </v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|33|0x21|JMPR|JMP|reg|||2|</v>
+      </c>
+    </row>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C42" s="2">
         <v>33</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x21</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1986,16 +2132,20 @@
         <v>2</v>
       </c>
       <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JMPR(); </v>
+      </c>
+      <c r="AI42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JMPR(); </v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|34|0x22|JZC|JZ|const|||3|</v>
+      </c>
+    </row>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C43" s="2">
         <v>34</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x22</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2011,16 +2161,20 @@
         <v>3</v>
       </c>
       <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JZC(); </v>
+      </c>
+      <c r="AI43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JZC(); </v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|35|0x23|JZR|JZ|reg|||2|</v>
+      </c>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C44" s="2">
         <v>35</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x23</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2036,16 +2190,20 @@
         <v>2</v>
       </c>
       <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JZR(); </v>
+      </c>
+      <c r="AI44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JZR(); </v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|36|0x24|JNZC|JNZ|const|||3|</v>
+      </c>
+    </row>
+    <row r="45" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C45" s="2">
         <v>36</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x24</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2061,16 +2219,20 @@
         <v>3</v>
       </c>
       <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JNZC(); </v>
+      </c>
+      <c r="AI45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JNZC(); </v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|37|0x25|JNZR|JNZ|reg|||2|</v>
+      </c>
+    </row>
+    <row r="46" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C46" s="2">
         <v>37</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x25</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2086,16 +2248,20 @@
         <v>2</v>
       </c>
       <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JNZR(); </v>
+      </c>
+      <c r="AI46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JNZR(); </v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|38|0x26|JGTC|JGT|const|||3|</v>
+      </c>
+    </row>
+    <row r="47" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C47" s="2">
         <v>38</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x26</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2111,16 +2277,20 @@
         <v>3</v>
       </c>
       <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JGTC(); </v>
+      </c>
+      <c r="AI47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JGTC(); </v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|39|0x27|JGTR|JGT|reg|||2|</v>
+      </c>
+    </row>
+    <row r="48" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C48" s="2">
         <v>39</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x27</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2136,16 +2306,20 @@
         <v>2</v>
       </c>
       <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JGTR(); </v>
+      </c>
+      <c r="AI48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JGTR(); </v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|40|0x28|JLTC|JLT|const|||3|</v>
+      </c>
+    </row>
+    <row r="49" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C49" s="2">
         <v>40</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x28</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2161,16 +2335,20 @@
         <v>3</v>
       </c>
       <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JLTC(); </v>
+      </c>
+      <c r="AI49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JLTC(); </v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|41|0x29|JLTR|JLT|reg|||2|</v>
+      </c>
+    </row>
+    <row r="50" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C50" s="2">
         <v>41</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x29</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2186,16 +2364,20 @@
         <v>2</v>
       </c>
       <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JLTR(); </v>
+      </c>
+      <c r="AI50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JLTR(); </v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|42|0x2A|JEC|JE|const|||3|</v>
+      </c>
+    </row>
+    <row r="51" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C51" s="2">
         <v>42</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2A</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2211,16 +2393,20 @@
         <v>3</v>
       </c>
       <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JEC(); </v>
+      </c>
+      <c r="AI51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JEC(); </v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|43|0x2B|JER|JE|reg|||2|</v>
+      </c>
+    </row>
+    <row r="52" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C52" s="2">
         <v>43</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2B</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2236,16 +2422,20 @@
         <v>2</v>
       </c>
       <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JER(); </v>
+      </c>
+      <c r="AI52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JER(); </v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|44|0x2C|JNEC|JNE|const|||3|</v>
+      </c>
+    </row>
+    <row r="53" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C53" s="2">
         <v>44</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2C</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2261,16 +2451,20 @@
         <v>3</v>
       </c>
       <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JNEC(); </v>
+      </c>
+      <c r="AI53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JNEC(); </v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|45|0x2D|JNER|JNE|reg|||2|</v>
+      </c>
+    </row>
+    <row r="54" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C54" s="2">
         <v>45</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2D</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2286,268 +2480,344 @@
         <v>2</v>
       </c>
       <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">uint8_t JNER(); </v>
+      </c>
+      <c r="AI54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uint8_t JNER(); </v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|46|0x2E|||||||</v>
+      </c>
+    </row>
+    <row r="55" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C55" s="2">
         <v>46</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2E</v>
       </c>
       <c r="J55" s="10"/>
       <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI55" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|47|0x2F|||||||</v>
+      </c>
+    </row>
+    <row r="56" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C56" s="2">
         <v>47</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x2F</v>
       </c>
       <c r="J56" s="10"/>
       <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|48|0x30|||||||</v>
+      </c>
+    </row>
+    <row r="57" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C57" s="2">
         <v>48</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x30</v>
       </c>
       <c r="J57" s="10"/>
       <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI57" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|49|0x31|||||||</v>
+      </c>
+    </row>
+    <row r="58" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C58" s="2">
         <v>49</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x31</v>
       </c>
       <c r="J58" s="10"/>
       <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI58" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|50|0x32|||||||</v>
+      </c>
+    </row>
+    <row r="59" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C59" s="2">
         <v>50</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x32</v>
       </c>
       <c r="J59" s="10"/>
       <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI59" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|51|0x33|||||||</v>
+      </c>
+    </row>
+    <row r="60" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C60" s="2">
         <v>51</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x33</v>
       </c>
       <c r="J60" s="10"/>
       <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI60" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|52|0x34|||||||</v>
+      </c>
+    </row>
+    <row r="61" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C61" s="2">
         <v>52</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x34</v>
       </c>
       <c r="J61" s="10"/>
       <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI61" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|53|0x35|||||||</v>
+      </c>
+    </row>
+    <row r="62" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C62" s="2">
         <v>53</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x35</v>
       </c>
       <c r="J62" s="10"/>
       <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI62" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|54|0x36|||||||</v>
+      </c>
+    </row>
+    <row r="63" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C63" s="2">
         <v>54</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x36</v>
       </c>
       <c r="J63" s="10"/>
       <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI63" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|55|0x37|||||||</v>
+      </c>
+    </row>
+    <row r="64" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C64" s="2">
         <v>55</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x37</v>
       </c>
       <c r="J64" s="10"/>
       <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI64" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|56|0x38|||||||</v>
+      </c>
+    </row>
+    <row r="65" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C65" s="2">
         <v>56</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x38</v>
       </c>
       <c r="J65" s="10"/>
       <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI65" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|57|0x39|||||||</v>
+      </c>
+    </row>
+    <row r="66" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C66" s="2">
         <v>57</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x39</v>
       </c>
       <c r="J66" s="10"/>
       <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI66" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|58|0x3A|||||||</v>
+      </c>
+    </row>
+    <row r="67" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C67" s="2">
         <v>58</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3A</v>
       </c>
       <c r="J67" s="10"/>
       <c r="M67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI67" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|59|0x3B|||||||</v>
+      </c>
+    </row>
+    <row r="68" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C68" s="2">
         <v>59</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3B</v>
       </c>
       <c r="J68" s="10"/>
       <c r="M68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI68" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|60|0x3C|||||||</v>
+      </c>
+    </row>
+    <row r="69" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C69" s="2">
         <v>60</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3C</v>
       </c>
       <c r="J69" s="10"/>
       <c r="M69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI69" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|61|0x3D|||||||</v>
+      </c>
+    </row>
+    <row r="70" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C70" s="2">
         <v>61</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3D</v>
       </c>
       <c r="J70" s="10"/>
       <c r="M70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI70" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|62|0x3E|||||||</v>
+      </c>
+    </row>
+    <row r="71" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C71" s="2">
         <v>62</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3E</v>
       </c>
       <c r="J71" s="10"/>
       <c r="M71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI71" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.35">
+        <v>|63|0x3F|||||||</v>
+      </c>
+    </row>
+    <row r="72" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C72" s="2">
         <v>63</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x3F</v>
       </c>
       <c r="J72" s="10"/>
       <c r="M72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI72" t="str">
+        <f t="shared" ref="AI72:AI135" si="3">"|"&amp;C73&amp;"|"&amp;D73&amp;"|"&amp;E73&amp;"|"&amp;F73&amp;"|"&amp;G73&amp;"|"&amp;H73&amp;"|"&amp;I73&amp;"|"&amp;J73&amp;"|"</f>
+        <v>|64|0x40|ADDRC|ADD|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="73" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C73" s="2">
         <v>64</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0x40</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2566,16 +2836,20 @@
         <v>4</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" ref="M73:M136" si="2">IF(LEN(E73)&gt;0,"uint8_t " &amp;E73&amp;"(); ","")</f>
+        <f t="shared" ref="M73:M136" si="4">IF(LEN(E73)&gt;0,"uint8_t " &amp;E73&amp;"(); ","")</f>
         <v xml:space="preserve">uint8_t ADDRC(); </v>
       </c>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI73" t="str">
+        <f t="shared" si="3"/>
+        <v>|65|0x41|ADDRR|ADD|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="74" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C74" s="2">
         <v>65</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" ref="D74:D137" si="3">"0x"&amp;DEC2HEX(C74)</f>
+        <f t="shared" ref="D74:D137" si="5">"0x"&amp;DEC2HEX(C74)</f>
         <v>0x41</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -2594,16 +2868,20 @@
         <v>3</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t ADDRR(); </v>
       </c>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI74" t="str">
+        <f t="shared" si="3"/>
+        <v>|66|0x42|SUBRC|SUB|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="75" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C75" s="2">
         <v>66</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x42</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -2622,16 +2900,20 @@
         <v>4</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t SUBRC(); </v>
       </c>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI75" t="str">
+        <f t="shared" si="3"/>
+        <v>|67|0x43|SUBRR|SUB|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="76" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C76" s="2">
         <v>67</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x43</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -2650,16 +2932,20 @@
         <v>3</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t SUBRR(); </v>
       </c>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI76" t="str">
+        <f t="shared" si="3"/>
+        <v>|68|0x44|MULRC|MUL|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="77" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C77" s="2">
         <v>68</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x44</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2678,16 +2964,20 @@
         <v>4</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t MULRC(); </v>
       </c>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI77" t="str">
+        <f t="shared" si="3"/>
+        <v>|69|0x45|MULRR|MUL|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="78" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C78" s="2">
         <v>69</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x45</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -2706,16 +2996,20 @@
         <v>3</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t MULRR(); </v>
       </c>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI78" t="str">
+        <f t="shared" si="3"/>
+        <v>|70|0x46|DIVRC|DIV|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="79" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C79" s="2">
         <v>70</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x46</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -2734,16 +3028,20 @@
         <v>4</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t DIVRC(); </v>
       </c>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI79" t="str">
+        <f t="shared" si="3"/>
+        <v>|71|0x47|DIVRR|DIV|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="80" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C80" s="2">
         <v>71</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x47</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -2762,16 +3060,20 @@
         <v>3</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t DIVRR(); </v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI80" t="str">
+        <f t="shared" si="3"/>
+        <v>|72|0x48|POWRC|POW|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="81" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C81" s="2">
         <v>72</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x48</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -2790,16 +3092,20 @@
         <v>4</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t POWRC(); </v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI81" t="str">
+        <f t="shared" si="3"/>
+        <v>|73|0x49|POWRR|POW|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="82" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C82" s="2">
         <v>73</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x49</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -2818,100 +3124,128 @@
         <v>3</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t POWRR(); </v>
       </c>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI82" t="str">
+        <f t="shared" si="3"/>
+        <v>|74|0x4A|||||||</v>
+      </c>
+    </row>
+    <row r="83" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C83" s="2">
         <v>74</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x4A</v>
       </c>
       <c r="J83" s="10"/>
       <c r="M83" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI83" t="str">
+        <f t="shared" si="3"/>
+        <v>|75|0x4B|||||||</v>
+      </c>
+    </row>
+    <row r="84" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C84" s="2">
         <v>75</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x4B</v>
       </c>
       <c r="J84" s="10"/>
       <c r="M84" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI84" t="str">
+        <f t="shared" si="3"/>
+        <v>|76|0x4C|||||||</v>
+      </c>
+    </row>
+    <row r="85" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C85" s="2">
         <v>76</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x4C</v>
       </c>
       <c r="J85" s="10"/>
       <c r="M85" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI85" t="str">
+        <f t="shared" si="3"/>
+        <v>|77|0x4D|||||||</v>
+      </c>
+    </row>
+    <row r="86" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C86" s="2">
         <v>77</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x4D</v>
       </c>
       <c r="J86" s="10"/>
       <c r="M86" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI86" t="str">
+        <f t="shared" si="3"/>
+        <v>|78|0x4E|||||||</v>
+      </c>
+    </row>
+    <row r="87" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C87" s="2">
         <v>78</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x4E</v>
       </c>
       <c r="J87" s="10"/>
       <c r="M87" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI87" t="str">
+        <f t="shared" si="3"/>
+        <v>|79|0x4F|||||||</v>
+      </c>
+    </row>
+    <row r="88" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C88" s="2">
         <v>79</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x4F</v>
       </c>
       <c r="J88" s="10"/>
       <c r="M88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI88" t="str">
+        <f t="shared" si="3"/>
+        <v>|80|0x50|SHLRC|SHL|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="89" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C89" s="2">
         <v>80</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x50</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -2930,16 +3264,20 @@
         <v>4</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t SHLRC(); </v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI89" t="str">
+        <f t="shared" si="3"/>
+        <v>|81|0x51|SHLRR|SHL|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="90" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C90" s="2">
         <v>81</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x51</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -2958,16 +3296,20 @@
         <v>3</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t SHLRR(); </v>
       </c>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI90" t="str">
+        <f t="shared" si="3"/>
+        <v>|82|0x52|SHRRC|SHR|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="91" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C91" s="2">
         <v>82</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x52</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -2986,16 +3328,20 @@
         <v>4</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t SHRRC(); </v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI91" t="str">
+        <f t="shared" si="3"/>
+        <v>|83|0x53|SHRRR|SHR|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="92" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C92" s="2">
         <v>83</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x53</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3014,16 +3360,20 @@
         <v>3</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t SHRRR(); </v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI92" t="str">
+        <f t="shared" si="3"/>
+        <v>|84|0x54|ANDRC|AND|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="93" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C93" s="2">
         <v>84</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x54</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -3042,16 +3392,20 @@
         <v>4</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t ANDRC(); </v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI93" t="str">
+        <f t="shared" si="3"/>
+        <v>|85|0x55|ANDRR|AND|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="94" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C94" s="2">
         <v>85</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x55</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -3070,16 +3424,20 @@
         <v>3</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t ANDRR(); </v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI94" t="str">
+        <f t="shared" si="3"/>
+        <v>|86|0x56|ORRC|OR|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="95" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C95" s="2">
         <v>86</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x56</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -3098,16 +3456,20 @@
         <v>4</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t ORRC(); </v>
       </c>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI95" t="str">
+        <f t="shared" si="3"/>
+        <v>|87|0x57|ORRR|OR|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="96" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C96" s="2">
         <v>87</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x57</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -3126,16 +3488,20 @@
         <v>3</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t ORRR(); </v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI96" t="str">
+        <f t="shared" si="3"/>
+        <v>|88|0x58|NEGRC|NEG|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="97" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C97" s="2">
         <v>88</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x58</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -3154,16 +3520,20 @@
         <v>4</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t NEGRC(); </v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI97" t="str">
+        <f t="shared" si="3"/>
+        <v>|89|0x59|NEGRR|NEG|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="98" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C98" s="2">
         <v>89</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x59</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -3182,16 +3552,20 @@
         <v>3</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t NEGRR(); </v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI98" t="str">
+        <f t="shared" si="3"/>
+        <v>|90|0x5A|XORRC|XOR|reg|const||4|</v>
+      </c>
+    </row>
+    <row r="99" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C99" s="2">
         <v>90</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x5A</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -3210,16 +3584,20 @@
         <v>4</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t XORRC(); </v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI99" t="str">
+        <f t="shared" si="3"/>
+        <v>|91|0x5B|XORRR|XOR|reg|reg||3|</v>
+      </c>
+    </row>
+    <row r="100" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C100" s="2">
         <v>91</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x5B</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -3238,3304 +3616,4628 @@
         <v>3</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">uint8_t XORRR(); </v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="AI100" t="str">
+        <f t="shared" si="3"/>
+        <v>|92|0x5C|||||||</v>
+      </c>
+    </row>
+    <row r="101" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C101" s="2">
         <v>92</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x5C</v>
       </c>
       <c r="J101" s="10"/>
       <c r="M101" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI101" t="str">
+        <f t="shared" si="3"/>
+        <v>|93|0x5D|||||||</v>
+      </c>
+    </row>
+    <row r="102" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C102" s="2">
         <v>93</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x5D</v>
       </c>
       <c r="J102" s="10"/>
       <c r="M102" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI102" t="str">
+        <f t="shared" si="3"/>
+        <v>|94|0x5E|||||||</v>
+      </c>
+    </row>
+    <row r="103" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C103" s="2">
         <v>94</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x5E</v>
       </c>
       <c r="J103" s="10"/>
       <c r="M103" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI103" t="str">
+        <f t="shared" si="3"/>
+        <v>|95|0x5F|||||||</v>
+      </c>
+    </row>
+    <row r="104" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C104" s="2">
         <v>95</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x5F</v>
       </c>
       <c r="J104" s="10"/>
       <c r="M104" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI104" t="str">
+        <f t="shared" si="3"/>
+        <v>|96|0x60|||||||</v>
+      </c>
+    </row>
+    <row r="105" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C105" s="2">
         <v>96</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x60</v>
       </c>
       <c r="J105" s="10"/>
       <c r="M105" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI105" t="str">
+        <f t="shared" si="3"/>
+        <v>|97|0x61|||||||</v>
+      </c>
+    </row>
+    <row r="106" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C106" s="2">
         <v>97</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x61</v>
       </c>
       <c r="J106" s="10"/>
       <c r="M106" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI106" t="str">
+        <f t="shared" si="3"/>
+        <v>|98|0x62|||||||</v>
+      </c>
+    </row>
+    <row r="107" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C107" s="2">
         <v>98</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x62</v>
       </c>
       <c r="J107" s="10"/>
       <c r="M107" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI107" t="str">
+        <f t="shared" si="3"/>
+        <v>|99|0x63|||||||</v>
+      </c>
+    </row>
+    <row r="108" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C108" s="2">
         <v>99</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x63</v>
       </c>
       <c r="J108" s="10"/>
       <c r="M108" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI108" t="str">
+        <f t="shared" si="3"/>
+        <v>|100|0x64|||||||</v>
+      </c>
+    </row>
+    <row r="109" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C109" s="2">
         <v>100</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x64</v>
       </c>
       <c r="J109" s="10"/>
       <c r="M109" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI109" t="str">
+        <f t="shared" si="3"/>
+        <v>|101|0x65|||||||</v>
+      </c>
+    </row>
+    <row r="110" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C110" s="2">
         <v>101</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x65</v>
       </c>
       <c r="J110" s="10"/>
       <c r="M110" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI110" t="str">
+        <f t="shared" si="3"/>
+        <v>|102|0x66|||||||</v>
+      </c>
+    </row>
+    <row r="111" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C111" s="2">
         <v>102</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x66</v>
       </c>
       <c r="J111" s="10"/>
       <c r="M111" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI111" t="str">
+        <f t="shared" si="3"/>
+        <v>|103|0x67|||||||</v>
+      </c>
+    </row>
+    <row r="112" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C112" s="2">
         <v>103</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x67</v>
       </c>
       <c r="J112" s="10"/>
       <c r="M112" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI112" t="str">
+        <f t="shared" si="3"/>
+        <v>|104|0x68|||||||</v>
+      </c>
+    </row>
+    <row r="113" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C113" s="2">
         <v>104</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x68</v>
       </c>
       <c r="J113" s="10"/>
       <c r="M113" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI113" t="str">
+        <f t="shared" si="3"/>
+        <v>|105|0x69|||||||</v>
+      </c>
+    </row>
+    <row r="114" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C114" s="2">
         <v>105</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x69</v>
       </c>
       <c r="J114" s="10"/>
       <c r="M114" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI114" t="str">
+        <f t="shared" si="3"/>
+        <v>|106|0x6A|||||||</v>
+      </c>
+    </row>
+    <row r="115" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C115" s="2">
         <v>106</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x6A</v>
       </c>
       <c r="J115" s="10"/>
       <c r="M115" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI115" t="str">
+        <f t="shared" si="3"/>
+        <v>|107|0x6B|||||||</v>
+      </c>
+    </row>
+    <row r="116" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C116" s="2">
         <v>107</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x6B</v>
       </c>
       <c r="J116" s="10"/>
       <c r="M116" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI116" t="str">
+        <f t="shared" si="3"/>
+        <v>|108|0x6C|||||||</v>
+      </c>
+    </row>
+    <row r="117" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C117" s="2">
         <v>108</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x6C</v>
       </c>
       <c r="J117" s="10"/>
       <c r="M117" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI117" t="str">
+        <f t="shared" si="3"/>
+        <v>|109|0x6D|||||||</v>
+      </c>
+    </row>
+    <row r="118" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C118" s="2">
         <v>109</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x6D</v>
       </c>
       <c r="J118" s="10"/>
       <c r="M118" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI118" t="str">
+        <f t="shared" si="3"/>
+        <v>|110|0x6E|||||||</v>
+      </c>
+    </row>
+    <row r="119" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C119" s="2">
         <v>110</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x6E</v>
       </c>
       <c r="J119" s="10"/>
       <c r="M119" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI119" t="str">
+        <f t="shared" si="3"/>
+        <v>|111|0x6F|||||||</v>
+      </c>
+    </row>
+    <row r="120" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C120" s="2">
         <v>111</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x6F</v>
       </c>
       <c r="J120" s="10"/>
       <c r="M120" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI120" t="str">
+        <f t="shared" si="3"/>
+        <v>|112|0x70|||||||</v>
+      </c>
+    </row>
+    <row r="121" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C121" s="2">
         <v>112</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x70</v>
       </c>
       <c r="J121" s="10"/>
       <c r="M121" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI121" t="str">
+        <f t="shared" si="3"/>
+        <v>|113|0x71|||||||</v>
+      </c>
+    </row>
+    <row r="122" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C122" s="2">
         <v>113</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x71</v>
       </c>
       <c r="J122" s="10"/>
       <c r="M122" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI122" t="str">
+        <f t="shared" si="3"/>
+        <v>|114|0x72|||||||</v>
+      </c>
+    </row>
+    <row r="123" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C123" s="2">
         <v>114</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x72</v>
       </c>
       <c r="J123" s="10"/>
       <c r="M123" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI123" t="str">
+        <f t="shared" si="3"/>
+        <v>|115|0x73|||||||</v>
+      </c>
+    </row>
+    <row r="124" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C124" s="2">
         <v>115</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x73</v>
       </c>
       <c r="J124" s="10"/>
       <c r="M124" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI124" t="str">
+        <f t="shared" si="3"/>
+        <v>|116|0x74|||||||</v>
+      </c>
+    </row>
+    <row r="125" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C125" s="2">
         <v>116</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x74</v>
       </c>
       <c r="J125" s="10"/>
       <c r="M125" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI125" t="str">
+        <f t="shared" si="3"/>
+        <v>|117|0x75|||||||</v>
+      </c>
+    </row>
+    <row r="126" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C126" s="2">
         <v>117</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x75</v>
       </c>
       <c r="J126" s="10"/>
       <c r="M126" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI126" t="str">
+        <f t="shared" si="3"/>
+        <v>|118|0x76|||||||</v>
+      </c>
+    </row>
+    <row r="127" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C127" s="2">
         <v>118</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x76</v>
       </c>
       <c r="J127" s="10"/>
       <c r="M127" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI127" t="str">
+        <f t="shared" si="3"/>
+        <v>|119|0x77|||||||</v>
+      </c>
+    </row>
+    <row r="128" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C128" s="2">
         <v>119</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x77</v>
       </c>
       <c r="J128" s="10"/>
       <c r="M128" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI128" t="str">
+        <f t="shared" si="3"/>
+        <v>|120|0x78|||||||</v>
+      </c>
+    </row>
+    <row r="129" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C129" s="2">
         <v>120</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x78</v>
       </c>
       <c r="J129" s="10"/>
       <c r="M129" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI129" t="str">
+        <f t="shared" si="3"/>
+        <v>|121|0x79|||||||</v>
+      </c>
+    </row>
+    <row r="130" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C130" s="2">
         <v>121</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x79</v>
       </c>
       <c r="J130" s="10"/>
       <c r="M130" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI130" t="str">
+        <f t="shared" si="3"/>
+        <v>|122|0x7A|||||||</v>
+      </c>
+    </row>
+    <row r="131" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C131" s="2">
         <v>122</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x7A</v>
       </c>
       <c r="J131" s="10"/>
       <c r="M131" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI131" t="str">
+        <f t="shared" si="3"/>
+        <v>|123|0x7B|||||||</v>
+      </c>
+    </row>
+    <row r="132" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C132" s="2">
         <v>123</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x7B</v>
       </c>
       <c r="J132" s="10"/>
       <c r="M132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI132" t="str">
+        <f t="shared" si="3"/>
+        <v>|124|0x7C|||||||</v>
+      </c>
+    </row>
+    <row r="133" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C133" s="2">
         <v>124</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x7C</v>
       </c>
       <c r="J133" s="10"/>
       <c r="M133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI133" t="str">
+        <f t="shared" si="3"/>
+        <v>|125|0x7D|||||||</v>
+      </c>
+    </row>
+    <row r="134" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C134" s="2">
         <v>125</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x7D</v>
       </c>
       <c r="J134" s="10"/>
       <c r="M134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI134" t="str">
+        <f t="shared" si="3"/>
+        <v>|126|0x7E|||||||</v>
+      </c>
+    </row>
+    <row r="135" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C135" s="2">
         <v>126</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x7E</v>
       </c>
       <c r="J135" s="10"/>
       <c r="M135" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI135" t="str">
+        <f t="shared" si="3"/>
+        <v>|127|0x7F|||||||</v>
+      </c>
+    </row>
+    <row r="136" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C136" s="2">
         <v>127</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x7F</v>
       </c>
       <c r="J136" s="10"/>
       <c r="M136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI136" t="str">
+        <f t="shared" ref="AI136:AI199" si="6">"|"&amp;C137&amp;"|"&amp;D137&amp;"|"&amp;E137&amp;"|"&amp;F137&amp;"|"&amp;G137&amp;"|"&amp;H137&amp;"|"&amp;I137&amp;"|"&amp;J137&amp;"|"</f>
+        <v>|128|0x80|||||||</v>
+      </c>
+    </row>
+    <row r="137" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C137" s="2">
         <v>128</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0x80</v>
       </c>
       <c r="J137" s="10"/>
       <c r="M137" t="str">
-        <f t="shared" ref="M137:M200" si="4">IF(LEN(E137)&gt;0,"uint8_t " &amp;E137&amp;"(); ","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M137:M200" si="7">IF(LEN(E137)&gt;0,"uint8_t " &amp;E137&amp;"(); ","")</f>
+        <v/>
+      </c>
+      <c r="AI137" t="str">
+        <f t="shared" si="6"/>
+        <v>|129|0x81|||||||</v>
+      </c>
+    </row>
+    <row r="138" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C138" s="2">
         <v>129</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f t="shared" ref="D138:D201" si="5">"0x"&amp;DEC2HEX(C138)</f>
+        <f t="shared" ref="D138:D201" si="8">"0x"&amp;DEC2HEX(C138)</f>
         <v>0x81</v>
       </c>
       <c r="J138" s="10"/>
       <c r="M138" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI138" t="str">
+        <f t="shared" si="6"/>
+        <v>|130|0x82|||||||</v>
+      </c>
+    </row>
+    <row r="139" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C139" s="2">
         <v>130</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x82</v>
       </c>
       <c r="J139" s="10"/>
       <c r="M139" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI139" t="str">
+        <f t="shared" si="6"/>
+        <v>|131|0x83|||||||</v>
+      </c>
+    </row>
+    <row r="140" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C140" s="2">
         <v>131</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x83</v>
       </c>
       <c r="J140" s="10"/>
       <c r="M140" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI140" t="str">
+        <f t="shared" si="6"/>
+        <v>|132|0x84|||||||</v>
+      </c>
+    </row>
+    <row r="141" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C141" s="2">
         <v>132</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x84</v>
       </c>
       <c r="J141" s="10"/>
       <c r="M141" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI141" t="str">
+        <f t="shared" si="6"/>
+        <v>|133|0x85|||||||</v>
+      </c>
+    </row>
+    <row r="142" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C142" s="2">
         <v>133</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x85</v>
       </c>
       <c r="J142" s="10"/>
       <c r="M142" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI142" t="str">
+        <f t="shared" si="6"/>
+        <v>|134|0x86|||||||</v>
+      </c>
+    </row>
+    <row r="143" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C143" s="2">
         <v>134</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x86</v>
       </c>
       <c r="J143" s="10"/>
       <c r="M143" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI143" t="str">
+        <f t="shared" si="6"/>
+        <v>|135|0x87|||||||</v>
+      </c>
+    </row>
+    <row r="144" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C144" s="2">
         <v>135</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x87</v>
       </c>
       <c r="J144" s="10"/>
       <c r="M144" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI144" t="str">
+        <f t="shared" si="6"/>
+        <v>|136|0x88|||||||</v>
+      </c>
+    </row>
+    <row r="145" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C145" s="2">
         <v>136</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x88</v>
       </c>
       <c r="J145" s="10"/>
       <c r="M145" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI145" t="str">
+        <f t="shared" si="6"/>
+        <v>|137|0x89|||||||</v>
+      </c>
+    </row>
+    <row r="146" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C146" s="2">
         <v>137</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x89</v>
       </c>
       <c r="J146" s="10"/>
       <c r="M146" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI146" t="str">
+        <f t="shared" si="6"/>
+        <v>|138|0x8A|||||||</v>
+      </c>
+    </row>
+    <row r="147" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C147" s="2">
         <v>138</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x8A</v>
       </c>
       <c r="J147" s="10"/>
       <c r="M147" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI147" t="str">
+        <f t="shared" si="6"/>
+        <v>|139|0x8B|||||||</v>
+      </c>
+    </row>
+    <row r="148" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C148" s="2">
         <v>139</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x8B</v>
       </c>
       <c r="J148" s="10"/>
       <c r="M148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI148" t="str">
+        <f t="shared" si="6"/>
+        <v>|140|0x8C|||||||</v>
+      </c>
+    </row>
+    <row r="149" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C149" s="2">
         <v>140</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x8C</v>
       </c>
       <c r="J149" s="10"/>
       <c r="M149" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI149" t="str">
+        <f t="shared" si="6"/>
+        <v>|141|0x8D|||||||</v>
+      </c>
+    </row>
+    <row r="150" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C150" s="2">
         <v>141</v>
       </c>
       <c r="D150" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x8D</v>
       </c>
       <c r="J150" s="10"/>
       <c r="M150" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI150" t="str">
+        <f t="shared" si="6"/>
+        <v>|142|0x8E|||||||</v>
+      </c>
+    </row>
+    <row r="151" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C151" s="2">
         <v>142</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x8E</v>
       </c>
       <c r="J151" s="10"/>
       <c r="M151" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI151" t="str">
+        <f t="shared" si="6"/>
+        <v>|143|0x8F|||||||</v>
+      </c>
+    </row>
+    <row r="152" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C152" s="2">
         <v>143</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x8F</v>
       </c>
       <c r="J152" s="10"/>
       <c r="M152" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI152" t="str">
+        <f t="shared" si="6"/>
+        <v>|144|0x90|||||||</v>
+      </c>
+    </row>
+    <row r="153" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C153" s="2">
         <v>144</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x90</v>
       </c>
       <c r="J153" s="10"/>
       <c r="M153" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI153" t="str">
+        <f t="shared" si="6"/>
+        <v>|145|0x91|||||||</v>
+      </c>
+    </row>
+    <row r="154" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C154" s="2">
         <v>145</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x91</v>
       </c>
       <c r="J154" s="10"/>
       <c r="M154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI154" t="str">
+        <f t="shared" si="6"/>
+        <v>|146|0x92|||||||</v>
+      </c>
+    </row>
+    <row r="155" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C155" s="2">
         <v>146</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x92</v>
       </c>
       <c r="J155" s="10"/>
       <c r="M155" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI155" t="str">
+        <f t="shared" si="6"/>
+        <v>|147|0x93|||||||</v>
+      </c>
+    </row>
+    <row r="156" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C156" s="2">
         <v>147</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x93</v>
       </c>
       <c r="J156" s="10"/>
       <c r="M156" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI156" t="str">
+        <f t="shared" si="6"/>
+        <v>|148|0x94|||||||</v>
+      </c>
+    </row>
+    <row r="157" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C157" s="2">
         <v>148</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x94</v>
       </c>
       <c r="J157" s="10"/>
       <c r="M157" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI157" t="str">
+        <f t="shared" si="6"/>
+        <v>|149|0x95|||||||</v>
+      </c>
+    </row>
+    <row r="158" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C158" s="2">
         <v>149</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x95</v>
       </c>
       <c r="J158" s="10"/>
       <c r="M158" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI158" t="str">
+        <f t="shared" si="6"/>
+        <v>|150|0x96|||||||</v>
+      </c>
+    </row>
+    <row r="159" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C159" s="2">
         <v>150</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x96</v>
       </c>
       <c r="J159" s="10"/>
       <c r="M159" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI159" t="str">
+        <f t="shared" si="6"/>
+        <v>|151|0x97|||||||</v>
+      </c>
+    </row>
+    <row r="160" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C160" s="2">
         <v>151</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x97</v>
       </c>
       <c r="J160" s="10"/>
       <c r="M160" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI160" t="str">
+        <f t="shared" si="6"/>
+        <v>|152|0x98|||||||</v>
+      </c>
+    </row>
+    <row r="161" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C161" s="2">
         <v>152</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x98</v>
       </c>
       <c r="J161" s="10"/>
       <c r="M161" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI161" t="str">
+        <f t="shared" si="6"/>
+        <v>|153|0x99|||||||</v>
+      </c>
+    </row>
+    <row r="162" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C162" s="2">
         <v>153</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x99</v>
       </c>
       <c r="J162" s="10"/>
       <c r="M162" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI162" t="str">
+        <f t="shared" si="6"/>
+        <v>|154|0x9A|||||||</v>
+      </c>
+    </row>
+    <row r="163" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C163" s="2">
         <v>154</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x9A</v>
       </c>
       <c r="J163" s="10"/>
       <c r="M163" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI163" t="str">
+        <f t="shared" si="6"/>
+        <v>|155|0x9B|||||||</v>
+      </c>
+    </row>
+    <row r="164" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C164" s="2">
         <v>155</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x9B</v>
       </c>
       <c r="J164" s="10"/>
       <c r="M164" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI164" t="str">
+        <f t="shared" si="6"/>
+        <v>|156|0x9C|||||||</v>
+      </c>
+    </row>
+    <row r="165" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C165" s="2">
         <v>156</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x9C</v>
       </c>
       <c r="J165" s="10"/>
       <c r="M165" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI165" t="str">
+        <f t="shared" si="6"/>
+        <v>|157|0x9D|||||||</v>
+      </c>
+    </row>
+    <row r="166" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C166" s="2">
         <v>157</v>
       </c>
       <c r="D166" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x9D</v>
       </c>
       <c r="J166" s="10"/>
       <c r="M166" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI166" t="str">
+        <f t="shared" si="6"/>
+        <v>|158|0x9E|||||||</v>
+      </c>
+    </row>
+    <row r="167" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C167" s="2">
         <v>158</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x9E</v>
       </c>
       <c r="J167" s="10"/>
       <c r="M167" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI167" t="str">
+        <f t="shared" si="6"/>
+        <v>|159|0x9F|||||||</v>
+      </c>
+    </row>
+    <row r="168" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C168" s="2">
         <v>159</v>
       </c>
       <c r="D168" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0x9F</v>
       </c>
       <c r="J168" s="10"/>
       <c r="M168" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI168" t="str">
+        <f t="shared" si="6"/>
+        <v>|160|0xA0|||||||</v>
+      </c>
+    </row>
+    <row r="169" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C169" s="2">
         <v>160</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA0</v>
       </c>
       <c r="J169" s="10"/>
       <c r="M169" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI169" t="str">
+        <f t="shared" si="6"/>
+        <v>|161|0xA1|||||||</v>
+      </c>
+    </row>
+    <row r="170" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C170" s="2">
         <v>161</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA1</v>
       </c>
       <c r="J170" s="10"/>
       <c r="M170" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI170" t="str">
+        <f t="shared" si="6"/>
+        <v>|162|0xA2|||||||</v>
+      </c>
+    </row>
+    <row r="171" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C171" s="2">
         <v>162</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA2</v>
       </c>
       <c r="J171" s="10"/>
       <c r="M171" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI171" t="str">
+        <f t="shared" si="6"/>
+        <v>|163|0xA3|||||||</v>
+      </c>
+    </row>
+    <row r="172" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C172" s="2">
         <v>163</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA3</v>
       </c>
       <c r="J172" s="10"/>
       <c r="M172" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI172" t="str">
+        <f t="shared" si="6"/>
+        <v>|164|0xA4|||||||</v>
+      </c>
+    </row>
+    <row r="173" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C173" s="2">
         <v>164</v>
       </c>
       <c r="D173" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA4</v>
       </c>
       <c r="J173" s="10"/>
       <c r="M173" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI173" t="str">
+        <f t="shared" si="6"/>
+        <v>|165|0xA5|||||||</v>
+      </c>
+    </row>
+    <row r="174" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C174" s="2">
         <v>165</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA5</v>
       </c>
       <c r="J174" s="10"/>
       <c r="M174" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI174" t="str">
+        <f t="shared" si="6"/>
+        <v>|166|0xA6|||||||</v>
+      </c>
+    </row>
+    <row r="175" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C175" s="2">
         <v>166</v>
       </c>
       <c r="D175" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA6</v>
       </c>
       <c r="J175" s="10"/>
       <c r="M175" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI175" t="str">
+        <f t="shared" si="6"/>
+        <v>|167|0xA7|||||||</v>
+      </c>
+    </row>
+    <row r="176" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C176" s="2">
         <v>167</v>
       </c>
       <c r="D176" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA7</v>
       </c>
       <c r="J176" s="10"/>
       <c r="M176" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI176" t="str">
+        <f t="shared" si="6"/>
+        <v>|168|0xA8|||||||</v>
+      </c>
+    </row>
+    <row r="177" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C177" s="2">
         <v>168</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA8</v>
       </c>
       <c r="J177" s="10"/>
       <c r="M177" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI177" t="str">
+        <f t="shared" si="6"/>
+        <v>|169|0xA9|||||||</v>
+      </c>
+    </row>
+    <row r="178" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C178" s="2">
         <v>169</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xA9</v>
       </c>
       <c r="J178" s="10"/>
       <c r="M178" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI178" t="str">
+        <f t="shared" si="6"/>
+        <v>|170|0xAA|||||||</v>
+      </c>
+    </row>
+    <row r="179" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C179" s="2">
         <v>170</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xAA</v>
       </c>
       <c r="J179" s="10"/>
       <c r="M179" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI179" t="str">
+        <f t="shared" si="6"/>
+        <v>|171|0xAB|||||||</v>
+      </c>
+    </row>
+    <row r="180" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C180" s="2">
         <v>171</v>
       </c>
       <c r="D180" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xAB</v>
       </c>
       <c r="J180" s="10"/>
       <c r="M180" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI180" t="str">
+        <f t="shared" si="6"/>
+        <v>|172|0xAC|||||||</v>
+      </c>
+    </row>
+    <row r="181" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C181" s="2">
         <v>172</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xAC</v>
       </c>
       <c r="J181" s="10"/>
       <c r="M181" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI181" t="str">
+        <f t="shared" si="6"/>
+        <v>|173|0xAD|||||||</v>
+      </c>
+    </row>
+    <row r="182" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C182" s="2">
         <v>173</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xAD</v>
       </c>
       <c r="J182" s="10"/>
       <c r="M182" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI182" t="str">
+        <f t="shared" si="6"/>
+        <v>|174|0xAE|||||||</v>
+      </c>
+    </row>
+    <row r="183" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C183" s="2">
         <v>174</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xAE</v>
       </c>
       <c r="J183" s="10"/>
       <c r="M183" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI183" t="str">
+        <f t="shared" si="6"/>
+        <v>|175|0xAF|||||||</v>
+      </c>
+    </row>
+    <row r="184" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C184" s="2">
         <v>175</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xAF</v>
       </c>
       <c r="J184" s="10"/>
       <c r="M184" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI184" t="str">
+        <f t="shared" si="6"/>
+        <v>|176|0xB0|||||||</v>
+      </c>
+    </row>
+    <row r="185" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C185" s="2">
         <v>176</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB0</v>
       </c>
       <c r="J185" s="10"/>
       <c r="M185" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI185" t="str">
+        <f t="shared" si="6"/>
+        <v>|177|0xB1|||||||</v>
+      </c>
+    </row>
+    <row r="186" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C186" s="2">
         <v>177</v>
       </c>
       <c r="D186" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB1</v>
       </c>
       <c r="J186" s="10"/>
       <c r="M186" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI186" t="str">
+        <f t="shared" si="6"/>
+        <v>|178|0xB2|||||||</v>
+      </c>
+    </row>
+    <row r="187" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C187" s="2">
         <v>178</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB2</v>
       </c>
       <c r="J187" s="10"/>
       <c r="M187" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI187" t="str">
+        <f t="shared" si="6"/>
+        <v>|179|0xB3|||||||</v>
+      </c>
+    </row>
+    <row r="188" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C188" s="2">
         <v>179</v>
       </c>
       <c r="D188" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB3</v>
       </c>
       <c r="J188" s="10"/>
       <c r="M188" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI188" t="str">
+        <f t="shared" si="6"/>
+        <v>|180|0xB4|||||||</v>
+      </c>
+    </row>
+    <row r="189" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C189" s="2">
         <v>180</v>
       </c>
       <c r="D189" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB4</v>
       </c>
       <c r="J189" s="10"/>
       <c r="M189" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI189" t="str">
+        <f t="shared" si="6"/>
+        <v>|181|0xB5|||||||</v>
+      </c>
+    </row>
+    <row r="190" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C190" s="2">
         <v>181</v>
       </c>
       <c r="D190" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB5</v>
       </c>
       <c r="J190" s="10"/>
       <c r="M190" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI190" t="str">
+        <f t="shared" si="6"/>
+        <v>|182|0xB6|||||||</v>
+      </c>
+    </row>
+    <row r="191" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C191" s="2">
         <v>182</v>
       </c>
       <c r="D191" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB6</v>
       </c>
       <c r="J191" s="10"/>
       <c r="M191" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI191" t="str">
+        <f t="shared" si="6"/>
+        <v>|183|0xB7|||||||</v>
+      </c>
+    </row>
+    <row r="192" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C192" s="2">
         <v>183</v>
       </c>
       <c r="D192" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB7</v>
       </c>
       <c r="J192" s="10"/>
       <c r="M192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI192" t="str">
+        <f t="shared" si="6"/>
+        <v>|184|0xB8|||||||</v>
+      </c>
+    </row>
+    <row r="193" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C193" s="2">
         <v>184</v>
       </c>
       <c r="D193" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB8</v>
       </c>
       <c r="J193" s="10"/>
       <c r="M193" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI193" t="str">
+        <f t="shared" si="6"/>
+        <v>|185|0xB9|||||||</v>
+      </c>
+    </row>
+    <row r="194" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C194" s="2">
         <v>185</v>
       </c>
       <c r="D194" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xB9</v>
       </c>
       <c r="J194" s="10"/>
       <c r="M194" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI194" t="str">
+        <f t="shared" si="6"/>
+        <v>|186|0xBA|||||||</v>
+      </c>
+    </row>
+    <row r="195" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C195" s="2">
         <v>186</v>
       </c>
       <c r="D195" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xBA</v>
       </c>
       <c r="J195" s="10"/>
       <c r="M195" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI195" t="str">
+        <f t="shared" si="6"/>
+        <v>|187|0xBB|||||||</v>
+      </c>
+    </row>
+    <row r="196" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C196" s="2">
         <v>187</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xBB</v>
       </c>
       <c r="J196" s="10"/>
       <c r="M196" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI196" t="str">
+        <f t="shared" si="6"/>
+        <v>|188|0xBC|||||||</v>
+      </c>
+    </row>
+    <row r="197" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C197" s="2">
         <v>188</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xBC</v>
       </c>
       <c r="J197" s="10"/>
       <c r="M197" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI197" t="str">
+        <f t="shared" si="6"/>
+        <v>|189|0xBD|||||||</v>
+      </c>
+    </row>
+    <row r="198" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C198" s="2">
         <v>189</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xBD</v>
       </c>
       <c r="J198" s="10"/>
       <c r="M198" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI198" t="str">
+        <f t="shared" si="6"/>
+        <v>|190|0xBE|||||||</v>
+      </c>
+    </row>
+    <row r="199" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C199" s="2">
         <v>190</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xBE</v>
       </c>
       <c r="J199" s="10"/>
       <c r="M199" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI199" t="str">
+        <f t="shared" si="6"/>
+        <v>|191|0xBF|||||||</v>
+      </c>
+    </row>
+    <row r="200" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C200" s="2">
         <v>191</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xBF</v>
       </c>
       <c r="J200" s="10"/>
       <c r="M200" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI200" t="str">
+        <f t="shared" ref="AI200:AI263" si="9">"|"&amp;C201&amp;"|"&amp;D201&amp;"|"&amp;E201&amp;"|"&amp;F201&amp;"|"&amp;G201&amp;"|"&amp;H201&amp;"|"&amp;I201&amp;"|"&amp;J201&amp;"|"</f>
+        <v>|192|0xC0|||||||</v>
+      </c>
+    </row>
+    <row r="201" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C201" s="2">
         <v>192</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0xC0</v>
       </c>
       <c r="J201" s="10"/>
       <c r="M201" t="str">
-        <f t="shared" ref="M201:M264" si="6">IF(LEN(E201)&gt;0,"uint8_t " &amp;E201&amp;"(); ","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M201:M264" si="10">IF(LEN(E201)&gt;0,"uint8_t " &amp;E201&amp;"(); ","")</f>
+        <v/>
+      </c>
+      <c r="AI201" t="str">
+        <f t="shared" si="9"/>
+        <v>|193|0xC1|||||||</v>
+      </c>
+    </row>
+    <row r="202" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C202" s="2">
         <v>193</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f t="shared" ref="D202:D264" si="7">"0x"&amp;DEC2HEX(C202)</f>
+        <f t="shared" ref="D202:D264" si="11">"0x"&amp;DEC2HEX(C202)</f>
         <v>0xC1</v>
       </c>
       <c r="J202" s="10"/>
       <c r="M202" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI202" t="str">
+        <f t="shared" si="9"/>
+        <v>|194|0xC2|||||||</v>
+      </c>
+    </row>
+    <row r="203" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C203" s="2">
         <v>194</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC2</v>
       </c>
       <c r="J203" s="10"/>
       <c r="M203" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI203" t="str">
+        <f t="shared" si="9"/>
+        <v>|195|0xC3|||||||</v>
+      </c>
+    </row>
+    <row r="204" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C204" s="2">
         <v>195</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC3</v>
       </c>
       <c r="J204" s="10"/>
       <c r="M204" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI204" t="str">
+        <f t="shared" si="9"/>
+        <v>|196|0xC4|||||||</v>
+      </c>
+    </row>
+    <row r="205" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C205" s="2">
         <v>196</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC4</v>
       </c>
       <c r="J205" s="10"/>
       <c r="M205" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI205" t="str">
+        <f t="shared" si="9"/>
+        <v>|197|0xC5|||||||</v>
+      </c>
+    </row>
+    <row r="206" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C206" s="2">
         <v>197</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC5</v>
       </c>
       <c r="J206" s="10"/>
       <c r="M206" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI206" t="str">
+        <f t="shared" si="9"/>
+        <v>|198|0xC6|||||||</v>
+      </c>
+    </row>
+    <row r="207" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C207" s="2">
         <v>198</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC6</v>
       </c>
       <c r="J207" s="10"/>
       <c r="M207" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI207" t="str">
+        <f t="shared" si="9"/>
+        <v>|199|0xC7|||||||</v>
+      </c>
+    </row>
+    <row r="208" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C208" s="2">
         <v>199</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC7</v>
       </c>
       <c r="J208" s="10"/>
       <c r="M208" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI208" t="str">
+        <f t="shared" si="9"/>
+        <v>|200|0xC8|||||||</v>
+      </c>
+    </row>
+    <row r="209" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C209" s="2">
         <v>200</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC8</v>
       </c>
       <c r="J209" s="10"/>
       <c r="M209" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI209" t="str">
+        <f t="shared" si="9"/>
+        <v>|201|0xC9|||||||</v>
+      </c>
+    </row>
+    <row r="210" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C210" s="2">
         <v>201</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xC9</v>
       </c>
       <c r="J210" s="10"/>
       <c r="M210" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI210" t="str">
+        <f t="shared" si="9"/>
+        <v>|202|0xCA|||||||</v>
+      </c>
+    </row>
+    <row r="211" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C211" s="2">
         <v>202</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xCA</v>
       </c>
       <c r="J211" s="10"/>
       <c r="M211" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI211" t="str">
+        <f t="shared" si="9"/>
+        <v>|203|0xCB|||||||</v>
+      </c>
+    </row>
+    <row r="212" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C212" s="2">
         <v>203</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xCB</v>
       </c>
       <c r="J212" s="10"/>
       <c r="M212" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI212" t="str">
+        <f t="shared" si="9"/>
+        <v>|204|0xCC|||||||</v>
+      </c>
+    </row>
+    <row r="213" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C213" s="2">
         <v>204</v>
       </c>
       <c r="D213" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xCC</v>
       </c>
       <c r="J213" s="10"/>
       <c r="M213" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI213" t="str">
+        <f t="shared" si="9"/>
+        <v>|205|0xCD|||||||</v>
+      </c>
+    </row>
+    <row r="214" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C214" s="2">
         <v>205</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xCD</v>
       </c>
       <c r="J214" s="10"/>
       <c r="M214" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI214" t="str">
+        <f t="shared" si="9"/>
+        <v>|206|0xCE|||||||</v>
+      </c>
+    </row>
+    <row r="215" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C215" s="2">
         <v>206</v>
       </c>
       <c r="D215" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xCE</v>
       </c>
       <c r="J215" s="10"/>
       <c r="M215" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI215" t="str">
+        <f t="shared" si="9"/>
+        <v>|207|0xCF|||||||</v>
+      </c>
+    </row>
+    <row r="216" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C216" s="2">
         <v>207</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xCF</v>
       </c>
       <c r="J216" s="10"/>
       <c r="M216" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI216" t="str">
+        <f t="shared" si="9"/>
+        <v>|208|0xD0|||||||</v>
+      </c>
+    </row>
+    <row r="217" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C217" s="2">
         <v>208</v>
       </c>
       <c r="D217" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD0</v>
       </c>
       <c r="J217" s="10"/>
       <c r="M217" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI217" t="str">
+        <f t="shared" si="9"/>
+        <v>|209|0xD1|||||||</v>
+      </c>
+    </row>
+    <row r="218" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C218" s="2">
         <v>209</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD1</v>
       </c>
       <c r="J218" s="10"/>
       <c r="M218" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI218" t="str">
+        <f t="shared" si="9"/>
+        <v>|210|0xD2|||||||</v>
+      </c>
+    </row>
+    <row r="219" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C219" s="2">
         <v>210</v>
       </c>
       <c r="D219" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD2</v>
       </c>
       <c r="J219" s="10"/>
       <c r="M219" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI219" t="str">
+        <f t="shared" si="9"/>
+        <v>|211|0xD3|||||||</v>
+      </c>
+    </row>
+    <row r="220" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C220" s="2">
         <v>211</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD3</v>
       </c>
       <c r="J220" s="10"/>
       <c r="M220" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI220" t="str">
+        <f t="shared" si="9"/>
+        <v>|212|0xD4|||||||</v>
+      </c>
+    </row>
+    <row r="221" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C221" s="2">
         <v>212</v>
       </c>
       <c r="D221" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD4</v>
       </c>
       <c r="J221" s="10"/>
       <c r="M221" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI221" t="str">
+        <f t="shared" si="9"/>
+        <v>|213|0xD5|||||||</v>
+      </c>
+    </row>
+    <row r="222" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C222" s="2">
         <v>213</v>
       </c>
       <c r="D222" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD5</v>
       </c>
       <c r="J222" s="10"/>
       <c r="M222" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI222" t="str">
+        <f t="shared" si="9"/>
+        <v>|214|0xD6|||||||</v>
+      </c>
+    </row>
+    <row r="223" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C223" s="2">
         <v>214</v>
       </c>
       <c r="D223" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD6</v>
       </c>
       <c r="J223" s="10"/>
       <c r="M223" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI223" t="str">
+        <f t="shared" si="9"/>
+        <v>|215|0xD7|||||||</v>
+      </c>
+    </row>
+    <row r="224" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C224" s="2">
         <v>215</v>
       </c>
       <c r="D224" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD7</v>
       </c>
       <c r="J224" s="10"/>
       <c r="M224" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI224" t="str">
+        <f t="shared" si="9"/>
+        <v>|216|0xD8|||||||</v>
+      </c>
+    </row>
+    <row r="225" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C225" s="2">
         <v>216</v>
       </c>
       <c r="D225" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD8</v>
       </c>
       <c r="J225" s="10"/>
       <c r="M225" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI225" t="str">
+        <f t="shared" si="9"/>
+        <v>|217|0xD9|||||||</v>
+      </c>
+    </row>
+    <row r="226" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C226" s="2">
         <v>217</v>
       </c>
       <c r="D226" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xD9</v>
       </c>
       <c r="J226" s="10"/>
       <c r="M226" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI226" t="str">
+        <f t="shared" si="9"/>
+        <v>|218|0xDA|||||||</v>
+      </c>
+    </row>
+    <row r="227" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C227" s="2">
         <v>218</v>
       </c>
       <c r="D227" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xDA</v>
       </c>
       <c r="J227" s="10"/>
       <c r="M227" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI227" t="str">
+        <f t="shared" si="9"/>
+        <v>|219|0xDB|||||||</v>
+      </c>
+    </row>
+    <row r="228" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C228" s="2">
         <v>219</v>
       </c>
       <c r="D228" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xDB</v>
       </c>
       <c r="J228" s="10"/>
       <c r="M228" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI228" t="str">
+        <f t="shared" si="9"/>
+        <v>|220|0xDC|||||||</v>
+      </c>
+    </row>
+    <row r="229" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C229" s="2">
         <v>220</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xDC</v>
       </c>
       <c r="J229" s="10"/>
       <c r="M229" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI229" t="str">
+        <f t="shared" si="9"/>
+        <v>|221|0xDD|||||||</v>
+      </c>
+    </row>
+    <row r="230" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C230" s="2">
         <v>221</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xDD</v>
       </c>
       <c r="J230" s="10"/>
       <c r="M230" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI230" t="str">
+        <f t="shared" si="9"/>
+        <v>|222|0xDE|||||||</v>
+      </c>
+    </row>
+    <row r="231" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C231" s="2">
         <v>222</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xDE</v>
       </c>
       <c r="J231" s="10"/>
       <c r="M231" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI231" t="str">
+        <f t="shared" si="9"/>
+        <v>|223|0xDF|||||||</v>
+      </c>
+    </row>
+    <row r="232" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C232" s="2">
         <v>223</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xDF</v>
       </c>
       <c r="J232" s="10"/>
       <c r="M232" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI232" t="str">
+        <f t="shared" si="9"/>
+        <v>|224|0xE0|||||||</v>
+      </c>
+    </row>
+    <row r="233" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C233" s="2">
         <v>224</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE0</v>
       </c>
       <c r="J233" s="10"/>
       <c r="M233" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI233" t="str">
+        <f t="shared" si="9"/>
+        <v>|225|0xE1|||||||</v>
+      </c>
+    </row>
+    <row r="234" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C234" s="2">
         <v>225</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE1</v>
       </c>
       <c r="J234" s="10"/>
       <c r="M234" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI234" t="str">
+        <f t="shared" si="9"/>
+        <v>|226|0xE2|||||||</v>
+      </c>
+    </row>
+    <row r="235" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C235" s="2">
         <v>226</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE2</v>
       </c>
       <c r="J235" s="10"/>
       <c r="M235" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI235" t="str">
+        <f t="shared" si="9"/>
+        <v>|227|0xE3|||||||</v>
+      </c>
+    </row>
+    <row r="236" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C236" s="2">
         <v>227</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE3</v>
       </c>
       <c r="J236" s="10"/>
       <c r="M236" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI236" t="str">
+        <f t="shared" si="9"/>
+        <v>|228|0xE4|||||||</v>
+      </c>
+    </row>
+    <row r="237" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C237" s="2">
         <v>228</v>
       </c>
       <c r="D237" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE4</v>
       </c>
       <c r="J237" s="10"/>
       <c r="M237" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI237" t="str">
+        <f t="shared" si="9"/>
+        <v>|229|0xE5|||||||</v>
+      </c>
+    </row>
+    <row r="238" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C238" s="2">
         <v>229</v>
       </c>
       <c r="D238" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE5</v>
       </c>
       <c r="J238" s="10"/>
       <c r="M238" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI238" t="str">
+        <f t="shared" si="9"/>
+        <v>|230|0xE6|||||||</v>
+      </c>
+    </row>
+    <row r="239" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C239" s="2">
         <v>230</v>
       </c>
       <c r="D239" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE6</v>
       </c>
       <c r="J239" s="10"/>
       <c r="M239" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI239" t="str">
+        <f t="shared" si="9"/>
+        <v>|231|0xE7|||||||</v>
+      </c>
+    </row>
+    <row r="240" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C240" s="2">
         <v>231</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE7</v>
       </c>
       <c r="J240" s="10"/>
       <c r="M240" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI240" t="str">
+        <f t="shared" si="9"/>
+        <v>|232|0xE8|||||||</v>
+      </c>
+    </row>
+    <row r="241" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C241" s="2">
         <v>232</v>
       </c>
       <c r="D241" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE8</v>
       </c>
       <c r="J241" s="10"/>
       <c r="M241" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI241" t="str">
+        <f t="shared" si="9"/>
+        <v>|233|0xE9|||||||</v>
+      </c>
+    </row>
+    <row r="242" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C242" s="2">
         <v>233</v>
       </c>
       <c r="D242" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xE9</v>
       </c>
       <c r="J242" s="10"/>
       <c r="M242" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI242" t="str">
+        <f t="shared" si="9"/>
+        <v>|234|0xEA|||||||</v>
+      </c>
+    </row>
+    <row r="243" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C243" s="2">
         <v>234</v>
       </c>
       <c r="D243" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xEA</v>
       </c>
       <c r="J243" s="10"/>
       <c r="M243" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI243" t="str">
+        <f t="shared" si="9"/>
+        <v>|235|0xEB|||||||</v>
+      </c>
+    </row>
+    <row r="244" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C244" s="2">
         <v>235</v>
       </c>
       <c r="D244" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xEB</v>
       </c>
       <c r="J244" s="10"/>
       <c r="M244" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI244" t="str">
+        <f t="shared" si="9"/>
+        <v>|236|0xEC|||||||</v>
+      </c>
+    </row>
+    <row r="245" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C245" s="2">
         <v>236</v>
       </c>
       <c r="D245" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xEC</v>
       </c>
       <c r="J245" s="10"/>
       <c r="M245" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI245" t="str">
+        <f t="shared" si="9"/>
+        <v>|237|0xED|||||||</v>
+      </c>
+    </row>
+    <row r="246" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C246" s="2">
         <v>237</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xED</v>
       </c>
       <c r="J246" s="10"/>
       <c r="M246" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI246" t="str">
+        <f t="shared" si="9"/>
+        <v>|238|0xEE|||||||</v>
+      </c>
+    </row>
+    <row r="247" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C247" s="2">
         <v>238</v>
       </c>
       <c r="D247" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xEE</v>
       </c>
       <c r="J247" s="10"/>
       <c r="M247" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI247" t="str">
+        <f t="shared" si="9"/>
+        <v>|239|0xEF|||||||</v>
+      </c>
+    </row>
+    <row r="248" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C248" s="2">
         <v>239</v>
       </c>
       <c r="D248" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xEF</v>
       </c>
       <c r="J248" s="10"/>
       <c r="M248" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI248" t="str">
+        <f t="shared" si="9"/>
+        <v>|240|0xF0|||||||</v>
+      </c>
+    </row>
+    <row r="249" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C249" s="2">
         <v>240</v>
       </c>
       <c r="D249" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF0</v>
       </c>
       <c r="J249" s="10"/>
       <c r="M249" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI249" t="str">
+        <f t="shared" si="9"/>
+        <v>|241|0xF1|||||||</v>
+      </c>
+    </row>
+    <row r="250" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C250" s="2">
         <v>241</v>
       </c>
       <c r="D250" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF1</v>
       </c>
       <c r="J250" s="10"/>
       <c r="M250" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI250" t="str">
+        <f t="shared" si="9"/>
+        <v>|242|0xF2|||||||</v>
+      </c>
+    </row>
+    <row r="251" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C251" s="2">
         <v>242</v>
       </c>
       <c r="D251" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF2</v>
       </c>
       <c r="J251" s="10"/>
       <c r="M251" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI251" t="str">
+        <f t="shared" si="9"/>
+        <v>|243|0xF3|||||||</v>
+      </c>
+    </row>
+    <row r="252" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C252" s="2">
         <v>243</v>
       </c>
       <c r="D252" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF3</v>
       </c>
       <c r="J252" s="10"/>
       <c r="M252" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI252" t="str">
+        <f t="shared" si="9"/>
+        <v>|244|0xF4|||||||</v>
+      </c>
+    </row>
+    <row r="253" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C253" s="2">
         <v>244</v>
       </c>
       <c r="D253" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF4</v>
       </c>
       <c r="J253" s="10"/>
       <c r="M253" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI253" t="str">
+        <f t="shared" si="9"/>
+        <v>|245|0xF5|||||||</v>
+      </c>
+    </row>
+    <row r="254" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C254" s="2">
         <v>245</v>
       </c>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF5</v>
       </c>
       <c r="J254" s="10"/>
       <c r="M254" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI254" t="str">
+        <f t="shared" si="9"/>
+        <v>|246|0xF6|||||||</v>
+      </c>
+    </row>
+    <row r="255" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C255" s="2">
         <v>246</v>
       </c>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF6</v>
       </c>
       <c r="J255" s="10"/>
       <c r="M255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI255" t="str">
+        <f t="shared" si="9"/>
+        <v>|247|0xF7|||||||</v>
+      </c>
+    </row>
+    <row r="256" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C256" s="2">
         <v>247</v>
       </c>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF7</v>
       </c>
       <c r="J256" s="10"/>
       <c r="M256" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI256" t="str">
+        <f t="shared" si="9"/>
+        <v>|248|0xF8|||||||</v>
+      </c>
+    </row>
+    <row r="257" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C257" s="2">
         <v>248</v>
       </c>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF8</v>
       </c>
       <c r="J257" s="10"/>
       <c r="M257" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI257" t="str">
+        <f t="shared" si="9"/>
+        <v>|249|0xF9|||||||</v>
+      </c>
+    </row>
+    <row r="258" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C258" s="2">
         <v>249</v>
       </c>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xF9</v>
       </c>
       <c r="J258" s="10"/>
       <c r="M258" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI258" t="str">
+        <f t="shared" si="9"/>
+        <v>|250|0xFA|||||||</v>
+      </c>
+    </row>
+    <row r="259" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C259" s="2">
         <v>250</v>
       </c>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xFA</v>
       </c>
       <c r="J259" s="10"/>
       <c r="M259" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI259" t="str">
+        <f t="shared" si="9"/>
+        <v>|251|0xFB|||||||</v>
+      </c>
+    </row>
+    <row r="260" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C260" s="2">
         <v>251</v>
       </c>
       <c r="D260" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xFB</v>
       </c>
       <c r="J260" s="10"/>
       <c r="M260" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI260" t="str">
+        <f t="shared" si="9"/>
+        <v>|252|0xFC|||||||</v>
+      </c>
+    </row>
+    <row r="261" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C261" s="2">
         <v>252</v>
       </c>
       <c r="D261" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xFC</v>
       </c>
       <c r="J261" s="10"/>
       <c r="M261" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI261" t="str">
+        <f t="shared" si="9"/>
+        <v>|253|0xFD|||||||</v>
+      </c>
+    </row>
+    <row r="262" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C262" s="2">
         <v>253</v>
       </c>
       <c r="D262" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xFD</v>
       </c>
       <c r="J262" s="10"/>
       <c r="M262" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI262" t="str">
+        <f t="shared" si="9"/>
+        <v>|254|0xFE|||||||</v>
+      </c>
+    </row>
+    <row r="263" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C263" s="2">
         <v>254</v>
       </c>
       <c r="D263" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xFE</v>
       </c>
       <c r="J263" s="10"/>
       <c r="M263" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI263" t="str">
+        <f t="shared" si="9"/>
+        <v>|255|0xFF|||||||</v>
+      </c>
+    </row>
+    <row r="264" spans="3:35" x14ac:dyDescent="0.35">
       <c r="C264" s="2">
         <v>255</v>
       </c>
       <c r="D264" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0xFF</v>
       </c>
       <c r="J264" s="10"/>
       <c r="M264" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI264" t="str">
+        <f t="shared" ref="AI264:AI327" si="12">"|"&amp;C265&amp;"|"&amp;D265&amp;"|"&amp;E265&amp;"|"&amp;F265&amp;"|"&amp;G265&amp;"|"&amp;H265&amp;"|"&amp;I265&amp;"|"&amp;J265&amp;"|"</f>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="265" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J265" s="10"/>
       <c r="M265" t="str">
-        <f t="shared" ref="M265:M328" si="8">IF(LEN(E265)&gt;0,"uint8_t " &amp;E265&amp;"(); ","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M265:M328" si="13">IF(LEN(E265)&gt;0,"uint8_t " &amp;E265&amp;"(); ","")</f>
+        <v/>
+      </c>
+      <c r="AI265" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="266" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J266" s="10"/>
       <c r="M266" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI266" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="267" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J267" s="10"/>
       <c r="M267" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI267" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="268" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J268" s="10"/>
       <c r="M268" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI268" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="269" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J269" s="10"/>
       <c r="M269" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI269" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="270" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J270" s="10"/>
       <c r="M270" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI270" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="271" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J271" s="10"/>
       <c r="M271" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="3:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI271" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="272" spans="3:35" x14ac:dyDescent="0.35">
       <c r="J272" s="10"/>
       <c r="M272" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI272" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="273" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J273" s="10"/>
       <c r="M273" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI273" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="274" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J274" s="10"/>
       <c r="M274" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI274" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="275" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J275" s="10"/>
       <c r="M275" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI275" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="276" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J276" s="10"/>
       <c r="M276" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI276" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="277" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J277" s="10"/>
       <c r="M277" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI277" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="278" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J278" s="10"/>
       <c r="M278" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI278" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="279" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J279" s="10"/>
       <c r="M279" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI279" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="280" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J280" s="10"/>
       <c r="M280" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI280" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="281" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J281" s="10"/>
       <c r="M281" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI281" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="282" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J282" s="10"/>
       <c r="M282" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI282" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="283" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J283" s="10"/>
       <c r="M283" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI283" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="284" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J284" s="10"/>
       <c r="M284" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI284" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="285" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J285" s="10"/>
       <c r="M285" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI285" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="286" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J286" s="10"/>
       <c r="M286" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI286" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="287" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J287" s="10"/>
       <c r="M287" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI287" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="288" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J288" s="10"/>
       <c r="M288" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI288" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="289" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J289" s="10"/>
       <c r="M289" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI289" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="290" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J290" s="10"/>
       <c r="M290" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI290" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="291" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J291" s="10"/>
       <c r="M291" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI291" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="292" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J292" s="10"/>
       <c r="M292" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI292" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="293" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J293" s="10"/>
       <c r="M293" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI293" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="294" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J294" s="10"/>
       <c r="M294" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI294" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="295" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J295" s="10"/>
       <c r="M295" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI295" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="296" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J296" s="10"/>
       <c r="M296" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI296" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="297" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J297" s="10"/>
       <c r="M297" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI297" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="298" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J298" s="10"/>
       <c r="M298" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI298" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="299" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J299" s="10"/>
       <c r="M299" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI299" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="300" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J300" s="10"/>
       <c r="M300" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI300" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="301" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J301" s="10"/>
       <c r="M301" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI301" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="302" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J302" s="10"/>
       <c r="M302" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI302" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="303" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J303" s="10"/>
       <c r="M303" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI303" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="304" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J304" s="10"/>
       <c r="M304" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI304" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="305" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J305" s="10"/>
       <c r="M305" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI305" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="306" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J306" s="10"/>
       <c r="M306" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI306" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="307" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J307" s="10"/>
       <c r="M307" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI307" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="308" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J308" s="10"/>
       <c r="M308" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI308" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="309" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J309" s="10"/>
       <c r="M309" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI309" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="310" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J310" s="10"/>
       <c r="M310" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI310" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="311" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J311" s="10"/>
       <c r="M311" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI311" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="312" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J312" s="10"/>
       <c r="M312" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI312" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="313" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J313" s="10"/>
       <c r="M313" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI313" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="314" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J314" s="10"/>
       <c r="M314" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI314" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="315" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J315" s="10"/>
       <c r="M315" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI315" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="316" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J316" s="10"/>
       <c r="M316" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI316" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="317" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J317" s="10"/>
       <c r="M317" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI317" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="318" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J318" s="10"/>
       <c r="M318" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI318" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="319" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J319" s="10"/>
       <c r="M319" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI319" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="320" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J320" s="10"/>
       <c r="M320" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI320" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="321" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J321" s="10"/>
       <c r="M321" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI321" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="322" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J322" s="10"/>
       <c r="M322" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI322" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="323" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J323" s="10"/>
       <c r="M323" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI323" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="324" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J324" s="10"/>
       <c r="M324" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI324" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="325" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J325" s="10"/>
       <c r="M325" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI325" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="326" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J326" s="10"/>
       <c r="M326" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI326" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="327" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J327" s="10"/>
       <c r="M327" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI327" t="str">
+        <f t="shared" si="12"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="328" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J328" s="10"/>
       <c r="M328" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AI328" t="str">
+        <f t="shared" ref="AI328:AI391" si="14">"|"&amp;C329&amp;"|"&amp;D329&amp;"|"&amp;E329&amp;"|"&amp;F329&amp;"|"&amp;G329&amp;"|"&amp;H329&amp;"|"&amp;I329&amp;"|"&amp;J329&amp;"|"</f>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="329" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J329" s="10"/>
       <c r="M329" t="str">
-        <f t="shared" ref="M329:M388" si="9">IF(LEN(E329)&gt;0,"uint8_t " &amp;E329&amp;"(); ","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M329:M388" si="15">IF(LEN(E329)&gt;0,"uint8_t " &amp;E329&amp;"(); ","")</f>
+        <v/>
+      </c>
+      <c r="AI329" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="330" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J330" s="10"/>
       <c r="M330" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI330" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="331" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J331" s="10"/>
       <c r="M331" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI331" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="332" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J332" s="10"/>
       <c r="M332" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI332" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="333" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J333" s="10"/>
       <c r="M333" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI333" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="334" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J334" s="10"/>
       <c r="M334" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI334" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="335" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J335" s="10"/>
       <c r="M335" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI335" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="336" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J336" s="10"/>
       <c r="M336" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI336" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="337" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J337" s="10"/>
       <c r="M337" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI337" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="338" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J338" s="10"/>
       <c r="M338" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI338" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="339" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J339" s="10"/>
       <c r="M339" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI339" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="340" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J340" s="10"/>
       <c r="M340" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI340" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="341" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J341" s="10"/>
       <c r="M341" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI341" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="342" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J342" s="10"/>
       <c r="M342" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI342" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="343" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J343" s="10"/>
       <c r="M343" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI343" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="344" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J344" s="10"/>
       <c r="M344" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI344" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="345" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J345" s="10"/>
       <c r="M345" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI345" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="346" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J346" s="10"/>
       <c r="M346" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI346" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="347" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J347" s="10"/>
       <c r="M347" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI347" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="348" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J348" s="10"/>
       <c r="M348" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI348" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="349" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J349" s="10"/>
       <c r="M349" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI349" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="350" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J350" s="10"/>
       <c r="M350" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI350" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="351" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J351" s="10"/>
       <c r="M351" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI351" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="352" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J352" s="10"/>
       <c r="M352" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI352" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="353" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J353" s="10"/>
       <c r="M353" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI353" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="354" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J354" s="10"/>
       <c r="M354" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI354" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="355" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J355" s="10"/>
       <c r="M355" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI355" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="356" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J356" s="10"/>
       <c r="M356" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI356" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="357" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J357" s="10"/>
       <c r="M357" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI357" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="358" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J358" s="10"/>
       <c r="M358" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI358" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="359" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J359" s="10"/>
       <c r="M359" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI359" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="360" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J360" s="10"/>
       <c r="M360" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI360" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="361" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J361" s="10"/>
       <c r="M361" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI361" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="362" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J362" s="10"/>
       <c r="M362" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI362" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="363" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J363" s="10"/>
       <c r="M363" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI363" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="364" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J364" s="10"/>
       <c r="M364" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI364" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="365" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J365" s="10"/>
       <c r="M365" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI365" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="366" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J366" s="10"/>
       <c r="M366" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI366" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="367" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J367" s="10"/>
       <c r="M367" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI367" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="368" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J368" s="10"/>
       <c r="M368" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI368" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="369" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J369" s="10"/>
       <c r="M369" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI369" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="370" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J370" s="10"/>
       <c r="M370" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI370" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="371" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J371" s="10"/>
       <c r="M371" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI371" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="372" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J372" s="10"/>
       <c r="M372" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI372" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="373" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J373" s="10"/>
       <c r="M373" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI373" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="374" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J374" s="10"/>
       <c r="M374" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI374" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="375" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J375" s="10"/>
       <c r="M375" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI375" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="376" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J376" s="10"/>
       <c r="M376" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI376" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="377" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J377" s="10"/>
       <c r="M377" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI377" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="378" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J378" s="10"/>
       <c r="M378" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI378" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="379" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J379" s="10"/>
       <c r="M379" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI379" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="380" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J380" s="10"/>
       <c r="M380" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI380" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="381" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J381" s="10"/>
       <c r="M381" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI381" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="382" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J382" s="10"/>
       <c r="M382" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI382" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="383" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J383" s="10"/>
       <c r="M383" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI383" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="384" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J384" s="10"/>
       <c r="M384" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI384" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="385" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J385" s="10"/>
       <c r="M385" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI385" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="386" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J386" s="10"/>
       <c r="M386" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI386" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="387" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J387" s="10"/>
       <c r="M387" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI387" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="388" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J388" s="10"/>
       <c r="M388" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="10:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI388" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="389" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J389" s="10"/>
-    </row>
-    <row r="390" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI389" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="390" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J390" s="10"/>
-    </row>
-    <row r="391" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI390" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="391" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J391" s="10"/>
-    </row>
-    <row r="392" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI391" t="str">
+        <f t="shared" si="14"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="392" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J392" s="10"/>
-    </row>
-    <row r="393" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI392" t="str">
+        <f t="shared" ref="AI392:AI430" si="16">"|"&amp;C393&amp;"|"&amp;D393&amp;"|"&amp;E393&amp;"|"&amp;F393&amp;"|"&amp;G393&amp;"|"&amp;H393&amp;"|"&amp;I393&amp;"|"&amp;J393&amp;"|"</f>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="393" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J393" s="10"/>
-    </row>
-    <row r="394" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI393" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="394" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J394" s="10"/>
-    </row>
-    <row r="395" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI394" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="395" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J395" s="10"/>
-    </row>
-    <row r="396" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI395" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="396" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J396" s="10"/>
-    </row>
-    <row r="397" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI396" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="397" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J397" s="10"/>
-    </row>
-    <row r="398" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI397" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="398" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J398" s="10"/>
-    </row>
-    <row r="399" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI398" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="399" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J399" s="10"/>
-    </row>
-    <row r="400" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="AI399" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="400" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J400" s="10"/>
-    </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI400" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="401" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J401" s="10"/>
-    </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI401" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="402" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J402" s="10"/>
-    </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI402" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="403" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J403" s="10"/>
-    </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI403" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="404" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J404" s="10"/>
-    </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI404" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="405" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J405" s="10"/>
-    </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI405" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="406" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J406" s="10"/>
-    </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI406" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="407" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J407" s="10"/>
-    </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI407" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="408" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J408" s="10"/>
-    </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI408" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="409" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J409" s="10"/>
-    </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI409" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="410" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J410" s="10"/>
-    </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI410" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="411" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J411" s="10"/>
-    </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI411" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="412" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J412" s="10"/>
-    </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI412" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="413" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J413" s="10"/>
-    </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI413" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="414" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J414" s="10"/>
-    </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI414" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="415" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J415" s="10"/>
-    </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI415" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="416" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J416" s="10"/>
-    </row>
-    <row r="417" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI416" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="417" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J417" s="10"/>
-    </row>
-    <row r="418" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI417" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="418" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J418" s="10"/>
-    </row>
-    <row r="419" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI418" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="419" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J419" s="10"/>
-    </row>
-    <row r="420" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI419" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="420" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J420" s="10"/>
-    </row>
-    <row r="421" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI420" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="421" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J421" s="10"/>
-    </row>
-    <row r="422" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI421" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="422" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J422" s="10"/>
-    </row>
-    <row r="423" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI422" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="423" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J423" s="10"/>
-    </row>
-    <row r="424" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI423" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="424" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J424" s="10"/>
-    </row>
-    <row r="425" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI424" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="425" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J425" s="10"/>
-    </row>
-    <row r="426" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI425" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="426" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J426" s="10"/>
-    </row>
-    <row r="427" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI426" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="427" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J427" s="10"/>
-    </row>
-    <row r="428" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI427" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="428" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J428" s="10"/>
-    </row>
-    <row r="429" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI428" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="429" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J429" s="10"/>
-    </row>
-    <row r="430" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI429" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="430" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J430" s="10"/>
-    </row>
-    <row r="431" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="AI430" t="str">
+        <f t="shared" si="16"/>
+        <v>|||||||||</v>
+      </c>
+    </row>
+    <row r="431" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J431" s="10"/>
     </row>
-    <row r="432" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="10:35" x14ac:dyDescent="0.35">
       <c r="J432" s="10"/>
     </row>
     <row r="433" spans="10:10" x14ac:dyDescent="0.35">
